--- a/Modelos/Tentativa 3/Resultados.xlsx
+++ b/Modelos/Tentativa 3/Resultados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Modelo 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Tentativa 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F92F119-75E2-4F7B-9AB6-B70503E55F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA76AB9D-154F-4DF8-8826-B7E1B28F3F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,19 +35,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Epoch</t>
+    <t>epoch</t>
   </si>
   <si>
-    <t>Loss</t>
+    <t>loss</t>
   </si>
   <si>
-    <t>Accuracy</t>
+    <t>accuracy</t>
   </si>
   <si>
-    <t>Val Loss</t>
+    <t>val_loss</t>
   </si>
   <si>
-    <t>Val Accuracy</t>
+    <t>val_accuracy</t>
   </si>
 </sst>
 </file>
@@ -106,10 +106,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -425,275 +425,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>17.47054481506348</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.49429067969322199</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.962560176849365</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.67596900463104248</v>
+      <c r="B2" s="2">
+        <v>15.91634368896484</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.48287206888198853</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.370465755462646</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.6093023419380188</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.6335875988006592</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.58525258302688599</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.8767349720001221</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B3" s="2">
+        <v>2.736685991287231</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.5914456844329834</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.024848461151123</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.6496124267578125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>2.9213097095489502</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.59531641006469727</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.516430139541626</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.58759689331054688</v>
+      <c r="B4" s="2">
+        <v>2.742836713790894</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.61292821168899536</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.1197035312652588</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.66976743936538696</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>2.8933582305908199</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.60847687721252441</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.5325088500976558</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.48682171106338501</v>
+      <c r="B5" s="2">
+        <v>2.977100133895874</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.58796209096908569</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.2406778335571289</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.68992245197296143</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>2.891624927520752</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.60344493389129639</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.8743681907653809</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.617054283618927</v>
+      <c r="B6" s="2">
+        <v>2.6528928279876709</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.63208824396133423</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.630965948104858</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.63100773096084595</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
-        <v>2.748011589050293</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.53725564479827881</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.7801952362060549</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.66666668653488159</v>
+      <c r="B7" s="2">
+        <v>2.4445168972015381</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.62241142988204956</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.739085912704468</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.68062013387680054</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
-        <v>2.4870023727416992</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.55544805526733398</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.7131111621856689</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.68992245197296143</v>
+      <c r="B8" s="2">
+        <v>2.277797937393188</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.62686276435852051</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.628132700920105</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.69767439365386963</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
-        <v>2.275548934936523</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.58409136533737183</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.6242296695709231</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.70232558250427246</v>
+      <c r="B9" s="2">
+        <v>2.2234728336334229</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.62763690948486328</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.5733151435852051</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.70697677135467529</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>14</v>
       </c>
-      <c r="B10" s="1">
-        <v>2.1222290992736821</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.60363847017288208</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.582619905471802</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.71162790060043335</v>
+      <c r="B10" s="2">
+        <v>2.2052962779998779</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.63944262266159058</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.541513919830322</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.71472865343093872</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
-        <v>2.0687358379364009</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.61641186475753784</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.5338573455810549</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.72248059511184692</v>
+      <c r="B11" s="2">
+        <v>2.149826288223267</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.64486163854598999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.5004315376281741</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.71782946586608887</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>16</v>
       </c>
-      <c r="B12" s="1">
-        <v>1.991935610771179</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.62686276435852051</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.473588705062866</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="B12" s="2">
+        <v>2.065276145935059</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.6539577841758728</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.4777201414108281</v>
+      </c>
+      <c r="E12" s="2">
         <v>0.73023253679275513</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>17</v>
       </c>
-      <c r="B13" s="1">
-        <v>1.9600013494491579</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.63053995370864868</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.4513452053070071</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.73488372564315796</v>
+      <c r="B13" s="2">
+        <v>2.0220284461975102</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.64931297302246094</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.4554862976074221</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.73023253679275513</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>18</v>
       </c>
-      <c r="B14" s="1">
-        <v>1.8679442405700679</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.63615250587463379</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.419038772583008</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="B14" s="2">
+        <v>1.945137500762939</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.66208630800247192</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.43042004108429</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.73023253679275513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.948025584220886</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.66789239645004272</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.414941072463989</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.72868216037750244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.9156544208526609</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.66634410619735718</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.390400886535645</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.73178297281265259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1.8317210674285891</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.64621639251708984</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1.3919997215271001</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.73643410205841064</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1.756756544113159</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.65221595764160156</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1.376409769058228</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.74573642015457153</v>
       </c>
     </row>
   </sheetData>
